--- a/chemanalyst_14_07_2019/ChemAnalyst/MarketAnalysisImportfile/demand by type(tonnes).xlsx
+++ b/chemanalyst_14_07_2019/ChemAnalyst/MarketAnalysisImportfile/demand by type(tonnes).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Market Analysis Import Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aj/Desktop/Import Fles/Market Analysis/LLDPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D178F8-094C-574E-A4BA-200E583A342F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9930" windowHeight="4080"/>
+    <workbookView xWindow="5780" yWindow="2560" windowWidth="27640" windowHeight="15440" xr2:uid="{6D83E4F1-534B-9148-852C-3BC9610E6EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+  <si>
+    <t>EndUse</t>
+  </si>
   <si>
     <t>Year</t>
   </si>
@@ -43,14 +47,11 @@
   <si>
     <t>Hexene Based</t>
   </si>
-  <si>
-    <t>Type</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -424,27 +425,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CC4F0E-9ED0-DD4C-A569-C7EC8A3E2D67}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2018</v>
@@ -453,9 +456,9 @@
         <v>1388.7742801110001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>2018</v>
@@ -464,9 +467,9 @@
         <v>120.315876174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>2018</v>
@@ -475,9 +478,9 @@
         <v>160.07838795800001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>2018</v>
@@ -486,9 +489,9 @@
         <v>44.732825756999773</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>2019</v>
@@ -497,9 +500,9 @@
         <v>1378.4446183428572</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>2019</v>
@@ -508,9 +511,9 @@
         <v>119.73885662857144</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>2019</v>
@@ -519,9 +522,9 @@
         <v>159.25438257142858</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>2019</v>
@@ -530,9 +533,9 @@
         <v>45.817571028571365</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3">
         <v>2020</v>
@@ -541,9 +544,9 @@
         <v>1463.6571248299429</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>2020</v>
@@ -552,9 +555,9 @@
         <v>127.64451670028569</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3">
         <v>2020</v>
@@ -563,9 +566,9 @@
         <v>169.64952077754285</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3">
         <v>2020</v>
@@ -574,9 +577,9 @@
         <v>49.609358263656986</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3">
         <v>2021</v>
@@ -585,9 +588,9 @@
         <v>1554.6738211430163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3">
         <v>2021</v>
@@ -596,9 +599,9 @@
         <v>135.94249662211661</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3">
         <v>2021</v>
@@ -607,9 +610,9 @@
         <v>180.80737156964233</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3">
         <v>2021</v>
@@ -618,9 +621,9 @@
         <v>54.107424292938731</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3">
         <v>2022</v>
@@ -629,9 +632,9 @@
         <v>1653.571409776272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3">
         <v>2022</v>
@@ -640,9 +643,9 @@
         <v>145.16163150918794</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3">
         <v>2022</v>
@@ -651,9 +654,9 @@
         <v>192.93375035331334</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3">
         <v>2022</v>
